--- a/resource/table/basic.xlsx
+++ b/resource/table/basic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\qq_rob\pcr_robot\resource\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35662B-F807-4148-BE29-36D5BB67F278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0744F706-A826-43B3-9D25-F1CD854DF826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="3744" windowWidth="12528" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,19 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
-  <si>
-    <t>产品 A</t>
-  </si>
-  <si>
-    <t>产品 B</t>
-  </si>
-  <si>
-    <t>产品 C</t>
-  </si>
-  <si>
-    <t>产品 D</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>玩家名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,11 +67,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品 D</t>
+    <t>排名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>排名</t>
+    <t>路人C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +126,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,14 +139,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,43 +206,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="21"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="21"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="21"/>
       </top>
       <bottom style="thin">
@@ -291,20 +240,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="21"/>
+      </top>
       <bottom style="thin">
-        <color indexed="21"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="21"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,7 +263,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -336,19 +285,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -357,25 +294,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,170 +495,170 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$34</c:f>
+              <c:f>Sheet1!$B$5:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>产品 C</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>产品 B</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$34</c:f>
+              <c:f>Sheet1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>25</c:v>
@@ -841,170 +769,170 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$34</c:f>
+              <c:f>Sheet1!$B$5:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>产品 C</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>产品 B</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$34</c:f>
+              <c:f>Sheet1!$D$5:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>50</c:v>
@@ -1031,7 +959,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,170 +1043,170 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$34</c:f>
+              <c:f>Sheet1!$B$5:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>产品 C</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>产品 B</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$34</c:f>
+              <c:f>Sheet1!$E$5:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>100</c:v>
@@ -1389,170 +1317,170 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$34</c:f>
+              <c:f>Sheet1!$B$5:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>产品 C</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>产品 B</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$34</c:f>
+              <c:f>Sheet1!$F$5:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>75</c:v>
@@ -1663,170 +1591,170 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$34</c:f>
+              <c:f>Sheet1!$B$5:$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>产品 C</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>产品 D</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>产品 B</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>产品 A</c:v>
+                  <c:v>路人C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$34</c:f>
+              <c:f>Sheet1!$G$5:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>350</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>75</c:v>
@@ -2579,16 +2507,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>209775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2941,29 +2869,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX34"/>
+  <dimension ref="A1:IW36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.09765625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.84375" customWidth="1"/>
-    <col min="2" max="2" width="4.84375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.07421875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="7.921875" style="1" customWidth="1"/>
-    <col min="8" max="258" width="10.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="7.8984375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.09765625" style="2" customWidth="1"/>
+    <col min="9" max="257" width="10.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="13.2" customHeight="1"/>
-    <row r="2" spans="1:258" ht="13.2" customHeight="1">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="1" spans="1:257" ht="13.15" customHeight="1"/>
+    <row r="2" spans="1:257" ht="13.15" customHeight="1">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3213,899 +3135,922 @@
       <c r="IU2" s="2"/>
       <c r="IV2" s="2"/>
       <c r="IW2" s="2"/>
-      <c r="IX2" s="2"/>
     </row>
-    <row r="3" spans="1:258" ht="16.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:257" ht="16.149999999999999" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:257" ht="20.25" customHeight="1">
+      <c r="A5" s="8">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43</v>
+      </c>
+      <c r="G5" s="6">
+        <v>75</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H34" si="0">SUM(C5:G5)</f>
+        <v>293</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:257" ht="20.25" customHeight="1">
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A34" si="1">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>75</v>
+      </c>
+      <c r="G6" s="6">
+        <v>75</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:257" ht="20.25" customHeight="1">
+      <c r="A7" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6">
+        <v>75</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:257" ht="20.25" customHeight="1">
+      <c r="A8" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7">
+        <v>75</v>
+      </c>
+      <c r="G8" s="6">
+        <v>75</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100</v>
+      </c>
+      <c r="F9" s="7">
+        <v>75</v>
+      </c>
+      <c r="G9" s="6">
+        <v>75</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6">
+        <v>75</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <v>75</v>
+      </c>
+      <c r="G11" s="6">
+        <v>75</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6">
+        <v>75</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>75</v>
+      </c>
+      <c r="G13" s="6">
+        <v>75</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7">
+        <v>75</v>
+      </c>
+      <c r="G14" s="6">
+        <v>75</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="8">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6">
+        <v>75</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
     </row>
-    <row r="4" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="16" spans="1:257" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7">
+        <v>75</v>
+      </c>
+      <c r="G16" s="6">
+        <v>75</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="C17" s="9">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7">
+        <v>75</v>
+      </c>
+      <c r="G17" s="6">
+        <v>75</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7">
+        <v>75</v>
+      </c>
+      <c r="G18" s="6">
+        <v>75</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <v>75</v>
+      </c>
+      <c r="G19" s="6">
+        <v>75</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>75</v>
+      </c>
+      <c r="G20" s="6">
+        <v>75</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
+        <v>75</v>
+      </c>
+      <c r="G21" s="6">
+        <v>75</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
+        <v>75</v>
+      </c>
+      <c r="G22" s="6">
+        <v>75</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7">
+        <v>50</v>
+      </c>
+      <c r="E23" s="7">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7">
+        <v>75</v>
+      </c>
+      <c r="G23" s="6">
+        <v>75</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7">
+        <v>100</v>
+      </c>
+      <c r="F24" s="7">
+        <v>75</v>
+      </c>
+      <c r="G24" s="6">
+        <v>75</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7">
+        <v>75</v>
+      </c>
+      <c r="G25" s="6">
+        <v>75</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9">
+        <v>25</v>
+      </c>
+      <c r="D26" s="7">
+        <v>50</v>
+      </c>
+      <c r="E26" s="7">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7">
+        <v>75</v>
+      </c>
+      <c r="G26" s="6">
+        <v>75</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7">
+        <v>75</v>
+      </c>
+      <c r="G27" s="6">
+        <v>75</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7">
+        <v>75</v>
+      </c>
+      <c r="G28" s="6">
+        <v>75</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7">
+        <v>50</v>
+      </c>
+      <c r="E29" s="7">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7">
+        <v>75</v>
+      </c>
+      <c r="G29" s="6">
+        <v>75</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="8">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>50</v>
+      </c>
+      <c r="E30" s="7">
+        <v>100</v>
+      </c>
+      <c r="F30" s="7">
+        <v>75</v>
+      </c>
+      <c r="G30" s="6">
+        <v>75</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="8">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7">
+        <v>50</v>
+      </c>
+      <c r="E31" s="7">
+        <v>100</v>
+      </c>
+      <c r="F31" s="7">
+        <v>75</v>
+      </c>
+      <c r="G31" s="6">
+        <v>75</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="8">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="9">
+        <v>25</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50</v>
+      </c>
+      <c r="E32" s="7">
+        <v>100</v>
+      </c>
+      <c r="F32" s="7">
+        <v>75</v>
+      </c>
+      <c r="G32" s="6">
+        <v>75</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="8">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7">
+        <v>50</v>
+      </c>
+      <c r="E33" s="7">
+        <v>100</v>
+      </c>
+      <c r="F33" s="7">
+        <v>75</v>
+      </c>
+      <c r="G33" s="6">
+        <v>75</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="9">
+        <v>25</v>
+      </c>
+      <c r="D34" s="7">
+        <v>66</v>
+      </c>
+      <c r="E34" s="7">
+        <v>100</v>
+      </c>
+      <c r="F34" s="7">
+        <v>75</v>
+      </c>
+      <c r="G34" s="6">
+        <v>75</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:258" ht="20.25" customHeight="1">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13">
-        <v>100</v>
-      </c>
-      <c r="E5" s="9">
-        <v>200</v>
-      </c>
-      <c r="F5" s="17">
-        <v>250</v>
-      </c>
-      <c r="G5" s="9">
-        <v>350</v>
-      </c>
-      <c r="H5" s="6">
-        <v>350</v>
-      </c>
-      <c r="I5" s="6">
-        <f>SUM(D5:H5)</f>
-        <v>1250</v>
-      </c>
-      <c r="J5" s="20">
-        <f>SUM(D5:H5)</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:258" ht="20.25" customHeight="1">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14">
-        <v>75</v>
-      </c>
-      <c r="E6" s="10">
-        <v>100</v>
-      </c>
-      <c r="F6" s="10">
-        <v>150</v>
-      </c>
-      <c r="G6" s="10">
-        <v>200</v>
-      </c>
-      <c r="H6" s="7">
-        <v>200</v>
-      </c>
-      <c r="I6" s="7">
-        <f>SUM(D6:H6)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:258" ht="20.25" customHeight="1">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>75</v>
-      </c>
-      <c r="E7" s="10">
-        <v>100</v>
-      </c>
-      <c r="F7" s="10">
-        <v>150</v>
-      </c>
-      <c r="G7" s="10">
-        <v>200</v>
-      </c>
-      <c r="H7" s="7">
-        <v>200</v>
-      </c>
-      <c r="I7" s="7">
-        <f>SUM(D7:H7)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:258" ht="20.25" customHeight="1">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14">
-        <v>75</v>
-      </c>
-      <c r="E8" s="10">
-        <v>100</v>
-      </c>
-      <c r="F8" s="10">
-        <v>150</v>
-      </c>
-      <c r="G8" s="10">
-        <v>200</v>
-      </c>
-      <c r="H8" s="7">
-        <v>200</v>
-      </c>
-      <c r="I8" s="7">
-        <f>SUM(D8:H8)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14">
-        <v>75</v>
-      </c>
-      <c r="E9" s="10">
-        <v>100</v>
-      </c>
-      <c r="F9" s="10">
-        <v>150</v>
-      </c>
-      <c r="G9" s="10">
-        <v>200</v>
-      </c>
-      <c r="H9" s="7">
-        <v>200</v>
-      </c>
-      <c r="I9" s="7">
-        <f>SUM(D9:H9)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="12">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="14">
-        <v>75</v>
-      </c>
-      <c r="E10" s="10">
-        <v>100</v>
-      </c>
-      <c r="F10" s="10">
-        <v>150</v>
-      </c>
-      <c r="G10" s="10">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>200</v>
-      </c>
-      <c r="I10" s="7">
-        <f>SUM(D10:H10)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="14">
-        <v>75</v>
-      </c>
-      <c r="E11" s="10">
-        <v>100</v>
-      </c>
-      <c r="F11" s="10">
-        <v>150</v>
-      </c>
-      <c r="G11" s="10">
-        <v>200</v>
-      </c>
-      <c r="H11" s="7">
-        <v>200</v>
-      </c>
-      <c r="I11" s="7">
-        <f>SUM(D11:H11)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="14">
-        <v>75</v>
-      </c>
-      <c r="E12" s="10">
-        <v>100</v>
-      </c>
-      <c r="F12" s="10">
-        <v>150</v>
-      </c>
-      <c r="G12" s="10">
-        <v>200</v>
-      </c>
-      <c r="H12" s="7">
-        <v>200</v>
-      </c>
-      <c r="I12" s="7">
-        <f>SUM(D12:H12)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="12">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>75</v>
-      </c>
-      <c r="E13" s="10">
-        <v>100</v>
-      </c>
-      <c r="F13" s="10">
-        <v>150</v>
-      </c>
-      <c r="G13" s="10">
-        <v>200</v>
-      </c>
-      <c r="H13" s="7">
-        <v>200</v>
-      </c>
-      <c r="I13" s="7">
-        <f>SUM(D13:H13)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="12">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14">
-        <v>75</v>
-      </c>
-      <c r="E14" s="10">
-        <v>100</v>
-      </c>
-      <c r="F14" s="10">
-        <v>150</v>
-      </c>
-      <c r="G14" s="10">
-        <v>200</v>
-      </c>
-      <c r="H14" s="7">
-        <v>200</v>
-      </c>
-      <c r="I14" s="7">
-        <f>SUM(D14:H14)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="12">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="14">
-        <v>75</v>
-      </c>
-      <c r="E15" s="10">
-        <v>100</v>
-      </c>
-      <c r="F15" s="10">
-        <v>150</v>
-      </c>
-      <c r="G15" s="10">
-        <v>200</v>
-      </c>
-      <c r="H15" s="7">
-        <v>200</v>
-      </c>
-      <c r="I15" s="7">
-        <f>SUM(D15:H15)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:258" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="12">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="14">
-        <v>75</v>
-      </c>
-      <c r="E16" s="10">
-        <v>100</v>
-      </c>
-      <c r="F16" s="10">
-        <v>150</v>
-      </c>
-      <c r="G16" s="10">
-        <v>200</v>
-      </c>
-      <c r="H16" s="7">
-        <v>200</v>
-      </c>
-      <c r="I16" s="7">
-        <f>SUM(D16:H16)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="12">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="14">
-        <v>75</v>
-      </c>
-      <c r="E17" s="10">
-        <v>100</v>
-      </c>
-      <c r="F17" s="10">
-        <v>150</v>
-      </c>
-      <c r="G17" s="10">
-        <v>200</v>
-      </c>
-      <c r="H17" s="7">
-        <v>200</v>
-      </c>
-      <c r="I17" s="7">
-        <f>SUM(D17:H17)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="12">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14">
-        <v>75</v>
-      </c>
-      <c r="E18" s="10">
-        <v>100</v>
-      </c>
-      <c r="F18" s="10">
-        <v>150</v>
-      </c>
-      <c r="G18" s="10">
-        <v>200</v>
-      </c>
-      <c r="H18" s="7">
-        <v>200</v>
-      </c>
-      <c r="I18" s="7">
-        <f>SUM(D18:H18)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="12">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="14">
-        <v>75</v>
-      </c>
-      <c r="E19" s="10">
-        <v>100</v>
-      </c>
-      <c r="F19" s="10">
-        <v>150</v>
-      </c>
-      <c r="G19" s="10">
-        <v>200</v>
-      </c>
-      <c r="H19" s="7">
-        <v>200</v>
-      </c>
-      <c r="I19" s="7">
-        <f>SUM(D19:H19)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="12">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="14">
-        <v>75</v>
-      </c>
-      <c r="E20" s="10">
-        <v>100</v>
-      </c>
-      <c r="F20" s="10">
-        <v>150</v>
-      </c>
-      <c r="G20" s="10">
-        <v>200</v>
-      </c>
-      <c r="H20" s="7">
-        <v>200</v>
-      </c>
-      <c r="I20" s="7">
-        <f>SUM(D20:H20)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="12">
-        <v>17</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14">
-        <v>75</v>
-      </c>
-      <c r="E21" s="10">
-        <v>100</v>
-      </c>
-      <c r="F21" s="10">
-        <v>150</v>
-      </c>
-      <c r="G21" s="10">
-        <v>200</v>
-      </c>
-      <c r="H21" s="7">
-        <v>200</v>
-      </c>
-      <c r="I21" s="7">
-        <f>SUM(D21:H21)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="12">
-        <v>18</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="14">
-        <v>75</v>
-      </c>
-      <c r="E22" s="10">
-        <v>100</v>
-      </c>
-      <c r="F22" s="10">
-        <v>150</v>
-      </c>
-      <c r="G22" s="10">
-        <v>200</v>
-      </c>
-      <c r="H22" s="7">
-        <v>200</v>
-      </c>
-      <c r="I22" s="7">
-        <f>SUM(D22:H22)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="12">
-        <v>19</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="14">
-        <v>75</v>
-      </c>
-      <c r="E23" s="10">
-        <v>100</v>
-      </c>
-      <c r="F23" s="10">
-        <v>150</v>
-      </c>
-      <c r="G23" s="10">
-        <v>200</v>
-      </c>
-      <c r="H23" s="7">
-        <v>200</v>
-      </c>
-      <c r="I23" s="7">
-        <f>SUM(D23:H23)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="12">
-        <v>20</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="14">
-        <v>75</v>
-      </c>
-      <c r="E24" s="10">
-        <v>100</v>
-      </c>
-      <c r="F24" s="10">
-        <v>150</v>
-      </c>
-      <c r="G24" s="10">
-        <v>200</v>
-      </c>
-      <c r="H24" s="7">
-        <v>200</v>
-      </c>
-      <c r="I24" s="7">
-        <f>SUM(D24:H24)</f>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="12">
-        <v>21</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14">
-        <v>50</v>
-      </c>
-      <c r="E25" s="10">
-        <v>100</v>
-      </c>
-      <c r="F25" s="10">
-        <v>150</v>
-      </c>
-      <c r="G25" s="10">
-        <v>100</v>
-      </c>
-      <c r="H25" s="7">
-        <v>100</v>
-      </c>
-      <c r="I25" s="7">
-        <f>SUM(D25:H25)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="12">
-        <v>22</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15">
-        <v>25</v>
-      </c>
-      <c r="E26" s="11">
-        <v>50</v>
-      </c>
-      <c r="F26" s="11">
-        <v>100</v>
-      </c>
-      <c r="G26" s="11">
-        <v>75</v>
-      </c>
-      <c r="H26" s="8">
-        <v>75</v>
-      </c>
-      <c r="I26" s="8">
-        <f>SUM(D26:H26)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="12">
-        <v>23</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
-        <v>25</v>
-      </c>
-      <c r="E27" s="11">
-        <v>50</v>
-      </c>
-      <c r="F27" s="11">
-        <v>100</v>
-      </c>
-      <c r="G27" s="11">
-        <v>75</v>
-      </c>
-      <c r="H27" s="8">
-        <v>75</v>
-      </c>
-      <c r="I27" s="8">
-        <f>SUM(D27:H27)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="12">
-        <v>24</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15">
-        <v>25</v>
-      </c>
-      <c r="E28" s="11">
-        <v>50</v>
-      </c>
-      <c r="F28" s="11">
-        <v>100</v>
-      </c>
-      <c r="G28" s="11">
-        <v>75</v>
-      </c>
-      <c r="H28" s="8">
-        <v>75</v>
-      </c>
-      <c r="I28" s="8">
-        <f>SUM(D28:H28)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="12">
-        <v>25</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <v>25</v>
-      </c>
-      <c r="E29" s="11">
-        <v>50</v>
-      </c>
-      <c r="F29" s="11">
-        <v>100</v>
-      </c>
-      <c r="G29" s="11">
-        <v>75</v>
-      </c>
-      <c r="H29" s="8">
-        <v>75</v>
-      </c>
-      <c r="I29" s="8">
-        <f>SUM(D29:H29)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="12">
-        <v>26</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <v>25</v>
-      </c>
-      <c r="E30" s="11">
-        <v>50</v>
-      </c>
-      <c r="F30" s="11">
-        <v>100</v>
-      </c>
-      <c r="G30" s="11">
-        <v>75</v>
-      </c>
-      <c r="H30" s="8">
-        <v>75</v>
-      </c>
-      <c r="I30" s="8">
-        <f>SUM(D30:H30)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="12">
-        <v>27</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <v>25</v>
-      </c>
-      <c r="E31" s="11">
-        <v>50</v>
-      </c>
-      <c r="F31" s="11">
-        <v>100</v>
-      </c>
-      <c r="G31" s="11">
-        <v>75</v>
-      </c>
-      <c r="H31" s="8">
-        <v>75</v>
-      </c>
-      <c r="I31" s="8">
-        <f>SUM(D31:H31)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="12">
-        <v>28</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11">
-        <v>50</v>
-      </c>
-      <c r="F32" s="11">
-        <v>100</v>
-      </c>
-      <c r="G32" s="11">
-        <v>75</v>
-      </c>
-      <c r="H32" s="8">
-        <v>75</v>
-      </c>
-      <c r="I32" s="8">
-        <f>SUM(D32:H32)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="12">
-        <v>29</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <v>25</v>
-      </c>
-      <c r="E33" s="11">
-        <v>50</v>
-      </c>
-      <c r="F33" s="11">
-        <v>100</v>
-      </c>
-      <c r="G33" s="11">
-        <v>75</v>
-      </c>
-      <c r="H33" s="8">
-        <v>75</v>
-      </c>
-      <c r="I33" s="8">
-        <f>SUM(D33:H33)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="12">
-        <v>30</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <v>25</v>
-      </c>
-      <c r="E34" s="11">
-        <v>50</v>
-      </c>
-      <c r="F34" s="11">
-        <v>100</v>
-      </c>
-      <c r="G34" s="11">
-        <v>75</v>
-      </c>
-      <c r="H34" s="8">
-        <v>75</v>
-      </c>
-      <c r="I34" s="8">
-        <f>SUM(D34:H34)</f>
-        <v>325</v>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:H36" si="2">SUM(C5:C34)</f>
+        <v>750</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="2"/>
+        <v>1516</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="2"/>
+        <v>2218</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="2"/>
+        <v>9734</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I34">
-    <sortCondition descending="1" ref="D4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H34">
+    <sortCondition ref="H4"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4128,7 +4073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4141,9 +4086,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>